--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.2801296707868</v>
+        <v>27.60313666666667</v>
       </c>
       <c r="H2">
-        <v>27.2801296707868</v>
+        <v>82.80941000000001</v>
       </c>
       <c r="I2">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512229</v>
       </c>
       <c r="J2">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512228</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.4142476057908</v>
+        <v>48.91569033333334</v>
       </c>
       <c r="N2">
-        <v>48.4142476057908</v>
+        <v>146.747071</v>
       </c>
       <c r="O2">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718727</v>
       </c>
       <c r="P2">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718726</v>
       </c>
       <c r="Q2">
-        <v>1320.746952599552</v>
+        <v>1350.226485415346</v>
       </c>
       <c r="R2">
-        <v>1320.746952599552</v>
+        <v>12152.03836873811</v>
       </c>
       <c r="S2">
-        <v>0.5092722233967042</v>
+        <v>0.4282268567482908</v>
       </c>
       <c r="T2">
-        <v>0.5092722233967042</v>
+        <v>0.4282268567482906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.2801296707868</v>
+        <v>27.60313666666667</v>
       </c>
       <c r="H3">
-        <v>27.2801296707868</v>
+        <v>82.80941000000001</v>
       </c>
       <c r="I3">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512229</v>
       </c>
       <c r="J3">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512228</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.879968767301454</v>
+        <v>0.9094179999999999</v>
       </c>
       <c r="N3">
-        <v>0.879968767301454</v>
+        <v>2.728254</v>
       </c>
       <c r="O3">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="P3">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="Q3">
-        <v>24.00566207822608</v>
+        <v>25.10278934112667</v>
       </c>
       <c r="R3">
-        <v>24.00566207822608</v>
+        <v>225.92510407014</v>
       </c>
       <c r="S3">
-        <v>0.009256441498218519</v>
+        <v>0.007961396618478001</v>
       </c>
       <c r="T3">
-        <v>0.009256441498218519</v>
+        <v>0.007961396618477997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.2801296707868</v>
+        <v>27.60313666666667</v>
       </c>
       <c r="H4">
-        <v>27.2801296707868</v>
+        <v>82.80941000000001</v>
       </c>
       <c r="I4">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512229</v>
       </c>
       <c r="J4">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512228</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.107554450518652</v>
+        <v>0.1679836666666667</v>
       </c>
       <c r="N4">
-        <v>0.107554450518652</v>
+        <v>0.503951</v>
       </c>
       <c r="O4">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="P4">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="Q4">
-        <v>2.934099356819049</v>
+        <v>4.636876108767779</v>
       </c>
       <c r="R4">
-        <v>2.934099356819049</v>
+        <v>41.73188497891001</v>
       </c>
       <c r="S4">
-        <v>0.001131371380545696</v>
+        <v>0.001470593935637447</v>
       </c>
       <c r="T4">
-        <v>0.001131371380545696</v>
+        <v>0.001470593935637447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.2801296707868</v>
+        <v>27.60313666666667</v>
       </c>
       <c r="H5">
-        <v>27.2801296707868</v>
+        <v>82.80941000000001</v>
       </c>
       <c r="I5">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512229</v>
       </c>
       <c r="J5">
-        <v>0.6619113618960043</v>
+        <v>0.6521368039512228</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.5232015107957</v>
+        <v>24.49948466666666</v>
       </c>
       <c r="N5">
-        <v>13.5232015107957</v>
+        <v>73.498454</v>
       </c>
       <c r="O5">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="P5">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="Q5">
-        <v>368.9146907786866</v>
+        <v>676.2626235169045</v>
       </c>
       <c r="R5">
-        <v>368.9146907786866</v>
+        <v>6086.36361165214</v>
       </c>
       <c r="S5">
-        <v>0.1422513256205359</v>
+        <v>0.2144779566488167</v>
       </c>
       <c r="T5">
-        <v>0.1422513256205359</v>
+        <v>0.2144779566488167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.760806236918146</v>
+        <v>0.768748</v>
       </c>
       <c r="H6">
-        <v>0.760806236918146</v>
+        <v>2.306244</v>
       </c>
       <c r="I6">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="J6">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.4142476057908</v>
+        <v>48.91569033333334</v>
       </c>
       <c r="N6">
-        <v>48.4142476057908</v>
+        <v>146.747071</v>
       </c>
       <c r="O6">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718727</v>
       </c>
       <c r="P6">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718726</v>
       </c>
       <c r="Q6">
-        <v>36.83386153418505</v>
+        <v>37.60383911236934</v>
       </c>
       <c r="R6">
-        <v>36.83386153418505</v>
+        <v>338.434552011324</v>
       </c>
       <c r="S6">
-        <v>0.01420291943349143</v>
+        <v>0.01192612794867884</v>
       </c>
       <c r="T6">
-        <v>0.01420291943349143</v>
+        <v>0.01192612794867883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.760806236918146</v>
+        <v>0.768748</v>
       </c>
       <c r="H7">
-        <v>0.760806236918146</v>
+        <v>2.306244</v>
       </c>
       <c r="I7">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="J7">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.879968767301454</v>
+        <v>0.9094179999999999</v>
       </c>
       <c r="N7">
-        <v>0.879968767301454</v>
+        <v>2.728254</v>
       </c>
       <c r="O7">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="P7">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="Q7">
-        <v>0.6694857264561189</v>
+        <v>0.6991132686639999</v>
       </c>
       <c r="R7">
-        <v>0.6694857264561189</v>
+        <v>6.292019417975999</v>
       </c>
       <c r="S7">
-        <v>0.0002581497415334494</v>
+        <v>0.0002217250815213533</v>
       </c>
       <c r="T7">
-        <v>0.0002581497415334494</v>
+        <v>0.0002217250815213533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.760806236918146</v>
+        <v>0.768748</v>
       </c>
       <c r="H8">
-        <v>0.760806236918146</v>
+        <v>2.306244</v>
       </c>
       <c r="I8">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="J8">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.107554450518652</v>
+        <v>0.1679836666666667</v>
       </c>
       <c r="N8">
-        <v>0.107554450518652</v>
+        <v>0.503951</v>
       </c>
       <c r="O8">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="P8">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="Q8">
-        <v>0.08182809676289457</v>
+        <v>0.1291371077826667</v>
       </c>
       <c r="R8">
-        <v>0.08182809676289457</v>
+        <v>1.162233970044</v>
       </c>
       <c r="S8">
-        <v>3.155243076104607E-05</v>
+        <v>4.095607540858276E-05</v>
       </c>
       <c r="T8">
-        <v>3.155243076104607E-05</v>
+        <v>4.095607540858275E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.760806236918146</v>
+        <v>0.768748</v>
       </c>
       <c r="H9">
-        <v>0.760806236918146</v>
+        <v>2.306244</v>
       </c>
       <c r="I9">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="J9">
-        <v>0.0184598203342389</v>
+        <v>0.01816202520090028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.5232015107957</v>
+        <v>24.49948466666666</v>
       </c>
       <c r="N9">
-        <v>13.5232015107957</v>
+        <v>73.498454</v>
       </c>
       <c r="O9">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="P9">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="Q9">
-        <v>10.28853605251426</v>
+        <v>18.83392983853066</v>
       </c>
       <c r="R9">
-        <v>10.28853605251426</v>
+        <v>169.505368546776</v>
       </c>
       <c r="S9">
-        <v>0.003967198728452978</v>
+        <v>0.005973216095291508</v>
       </c>
       <c r="T9">
-        <v>0.003967198728452978</v>
+        <v>0.005973216095291507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.112821957533012</v>
+        <v>0.1226433333333333</v>
       </c>
       <c r="H10">
-        <v>0.112821957533012</v>
+        <v>0.36793</v>
       </c>
       <c r="I10">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188969</v>
       </c>
       <c r="J10">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188968</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.4142476057908</v>
+        <v>48.91569033333334</v>
       </c>
       <c r="N10">
-        <v>48.4142476057908</v>
+        <v>146.747071</v>
       </c>
       <c r="O10">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718727</v>
       </c>
       <c r="P10">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718726</v>
       </c>
       <c r="Q10">
-        <v>5.462190187373257</v>
+        <v>5.999183314781111</v>
       </c>
       <c r="R10">
-        <v>5.462190187373257</v>
+        <v>53.99264983303</v>
       </c>
       <c r="S10">
-        <v>0.002106188271617127</v>
+        <v>0.00190265221553201</v>
       </c>
       <c r="T10">
-        <v>0.002106188271617127</v>
+        <v>0.001902652215532009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.112821957533012</v>
+        <v>0.1226433333333333</v>
       </c>
       <c r="H11">
-        <v>0.112821957533012</v>
+        <v>0.36793</v>
       </c>
       <c r="I11">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188969</v>
       </c>
       <c r="J11">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188968</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.879968767301454</v>
+        <v>0.9094179999999999</v>
       </c>
       <c r="N11">
-        <v>0.879968767301454</v>
+        <v>2.728254</v>
       </c>
       <c r="O11">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="P11">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="Q11">
-        <v>0.09927979889486156</v>
+        <v>0.1115340549133333</v>
       </c>
       <c r="R11">
-        <v>0.09927979889486156</v>
+        <v>1.00380649422</v>
       </c>
       <c r="S11">
-        <v>3.828170401760042E-05</v>
+        <v>3.53732342476128E-05</v>
       </c>
       <c r="T11">
-        <v>3.828170401760042E-05</v>
+        <v>3.537323424761279E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.112821957533012</v>
+        <v>0.1226433333333333</v>
       </c>
       <c r="H12">
-        <v>0.112821957533012</v>
+        <v>0.36793</v>
       </c>
       <c r="I12">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188969</v>
       </c>
       <c r="J12">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188968</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.107554450518652</v>
+        <v>0.1679836666666667</v>
       </c>
       <c r="N12">
-        <v>0.107554450518652</v>
+        <v>0.503951</v>
       </c>
       <c r="O12">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="P12">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="Q12">
-        <v>0.0121345036489018</v>
+        <v>0.02060207682555555</v>
       </c>
       <c r="R12">
-        <v>0.0121345036489018</v>
+        <v>0.18541869143</v>
       </c>
       <c r="S12">
-        <v>4.678992929666316E-06</v>
+        <v>6.533987221247992E-06</v>
       </c>
       <c r="T12">
-        <v>4.678992929666316E-06</v>
+        <v>6.533987221247991E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.112821957533012</v>
+        <v>0.1226433333333333</v>
       </c>
       <c r="H13">
-        <v>0.112821957533012</v>
+        <v>0.36793</v>
       </c>
       <c r="I13">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188969</v>
       </c>
       <c r="J13">
-        <v>0.00273745530038367</v>
+        <v>0.002897505178188968</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.5232015107957</v>
+        <v>24.49948466666666</v>
       </c>
       <c r="N13">
-        <v>13.5232015107957</v>
+        <v>73.498454</v>
       </c>
       <c r="O13">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="P13">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="Q13">
-        <v>1.525714066561356</v>
+        <v>3.004698464468889</v>
       </c>
       <c r="R13">
-        <v>1.525714066561356</v>
+        <v>27.04228618022</v>
       </c>
       <c r="S13">
-        <v>0.0005883063318192754</v>
+        <v>0.0009529457411880982</v>
       </c>
       <c r="T13">
-        <v>0.0005883063318192754</v>
+        <v>0.0009529457411880981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.0604155743062</v>
+        <v>13.83269</v>
       </c>
       <c r="H14">
-        <v>13.0604155743062</v>
+        <v>41.49807</v>
       </c>
       <c r="I14">
-        <v>0.3168913624693732</v>
+        <v>0.326803665669688</v>
       </c>
       <c r="J14">
-        <v>0.3168913624693732</v>
+        <v>0.3268036656696879</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.4142476057908</v>
+        <v>48.91569033333334</v>
       </c>
       <c r="N14">
-        <v>48.4142476057908</v>
+        <v>146.747071</v>
       </c>
       <c r="O14">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718727</v>
       </c>
       <c r="P14">
-        <v>0.769396406700023</v>
+        <v>0.6566518775718726</v>
       </c>
       <c r="Q14">
-        <v>632.3101934489868</v>
+        <v>676.6355805169967</v>
       </c>
       <c r="R14">
-        <v>632.3101934489868</v>
+        <v>6089.72022465297</v>
       </c>
       <c r="S14">
-        <v>0.2438150755982102</v>
+        <v>0.2145962406593712</v>
       </c>
       <c r="T14">
-        <v>0.2438150755982102</v>
+        <v>0.2145962406593711</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.0604155743062</v>
+        <v>13.83269</v>
       </c>
       <c r="H15">
-        <v>13.0604155743062</v>
+        <v>41.49807</v>
       </c>
       <c r="I15">
-        <v>0.3168913624693732</v>
+        <v>0.326803665669688</v>
       </c>
       <c r="J15">
-        <v>0.3168913624693732</v>
+        <v>0.3268036656696879</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.879968767301454</v>
+        <v>0.9094179999999999</v>
       </c>
       <c r="N15">
-        <v>0.879968767301454</v>
+        <v>2.728254</v>
       </c>
       <c r="O15">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="P15">
-        <v>0.01398441246227291</v>
+        <v>0.01220816946726638</v>
       </c>
       <c r="Q15">
-        <v>11.49275779336694</v>
+        <v>12.57969727442</v>
       </c>
       <c r="R15">
-        <v>11.49275779336694</v>
+        <v>113.21727546978</v>
       </c>
       <c r="S15">
-        <v>0.004431539518503344</v>
+        <v>0.003989674533019415</v>
       </c>
       <c r="T15">
-        <v>0.004431539518503344</v>
+        <v>0.003989674533019414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.0604155743062</v>
+        <v>13.83269</v>
       </c>
       <c r="H16">
-        <v>13.0604155743062</v>
+        <v>41.49807</v>
       </c>
       <c r="I16">
-        <v>0.3168913624693732</v>
+        <v>0.326803665669688</v>
       </c>
       <c r="J16">
-        <v>0.3168913624693732</v>
+        <v>0.3268036656696879</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.107554450518652</v>
+        <v>0.1679836666666667</v>
       </c>
       <c r="N16">
-        <v>0.107554450518652</v>
+        <v>0.503951</v>
       </c>
       <c r="O16">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="P16">
-        <v>0.001709249071212425</v>
+        <v>0.002255039014402017</v>
       </c>
       <c r="Q16">
-        <v>1.404705820639748</v>
+        <v>2.323665986063333</v>
       </c>
       <c r="R16">
-        <v>1.404705820639748</v>
+        <v>20.91299387457</v>
       </c>
       <c r="S16">
-        <v>0.000541646266976016</v>
+        <v>0.0007369550161347395</v>
       </c>
       <c r="T16">
-        <v>0.000541646266976016</v>
+        <v>0.0007369550161347393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.0604155743062</v>
+        <v>13.83269</v>
       </c>
       <c r="H17">
-        <v>13.0604155743062</v>
+        <v>41.49807</v>
       </c>
       <c r="I17">
-        <v>0.3168913624693732</v>
+        <v>0.326803665669688</v>
       </c>
       <c r="J17">
-        <v>0.3168913624693732</v>
+        <v>0.3268036656696879</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.5232015107957</v>
+        <v>24.49948466666666</v>
       </c>
       <c r="N17">
-        <v>13.5232015107957</v>
+        <v>73.498454</v>
       </c>
       <c r="O17">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="P17">
-        <v>0.2149099317664917</v>
+        <v>0.328884913946459</v>
       </c>
       <c r="Q17">
-        <v>176.6186316260773</v>
+        <v>338.8937765537533</v>
       </c>
       <c r="R17">
-        <v>176.6186316260773</v>
+        <v>3050.04398898378</v>
       </c>
       <c r="S17">
-        <v>0.06810310108568357</v>
+        <v>0.1074807954611627</v>
       </c>
       <c r="T17">
-        <v>0.06810310108568357</v>
+        <v>0.1074807954611627</v>
       </c>
     </row>
   </sheetData>
